--- a/biology/Zoologie/Anodonthyla_moramora/Anodonthyla_moramora.xlsx
+++ b/biology/Zoologie/Anodonthyla_moramora/Anodonthyla_moramora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla moramora est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla moramora est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de Madagascar. Elle ne se rencontre que dans la région de Ranomafama, entre 550 et 1 000 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de Madagascar. Elle ne se rencontre que dans la région de Ranomafama, entre 550 et 1 000 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla moramora mesure de 15 à 16,5 mm. Son dos varie du beige clair ou brun vert avec trois ou quatre taches symétriques brun foncé. Son ventre varie du vert olive au gris clair, sa poitrine est gris foncé ; l'ensemble du ventre peut être tacheté de points blanchâtres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla moramora mesure de 15 à 16,5 mm. Son dos varie du beige clair ou brun vert avec trois ou quatre taches symétriques brun foncé. Son ventre varie du vert olive au gris clair, sa poitrine est gris foncé ; l'ensemble du ventre peut être tacheté de points blanchâtres.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du malgache mora mora, « lent, calme », lui a été donné en référence à la lente fréquence de répétition de son chant[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du malgache mora mora, « lent, calme », lui a été donné en référence à la lente fréquence de répétition de son chant.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glaw &amp; Vences, 2005 : A new arboreal microhylid frog of the genus Anodonthyla from south-eastern Madagascar (Amphibia, Microhylidae). Spixiana, vol. 28, no 2, p. 181-189 (texte intégral).</t>
         </is>
